--- a/annotador-core/src/main/resources/rules/HOURGLASS-SYNTHETIC.xlsx
+++ b/annotador-core/src/main/resources/rules/HOURGLASS-SYNTHETIC.xlsx
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="810">
-  <si>
-    <t xml:space="preserve"> Problemas con pasado</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="805">
   <si>
     <t>Pasado un tiempo.</t>
   </si>
@@ -51,9 +48,6 @@
     <t>ya lo veremos pasado mañana</t>
   </si>
   <si>
-    <t xml:space="preserve"> Varios</t>
-  </si>
-  <si>
     <t>en ese momento</t>
   </si>
   <si>
@@ -111,24 +105,15 @@
     <t>El tres de abril de 1991.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Problemas con segundos</t>
-  </si>
-  <si>
     <t>el segundo perro tardó dos segundos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Meses</t>
-  </si>
-  <si>
     <t>en mayo me gusta ir con Abril al campo, sobre todo los jueves y los domingos...</t>
   </si>
   <si>
     <t>Abril es una persona maravillosa.</t>
   </si>
   <si>
-    <t>Demostrativos</t>
-  </si>
-  <si>
     <t>el niño, este niño, esas personas, el pasado jueves, unos pocos días</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>Entre las 12 y las 3.</t>
   </si>
   <si>
-    <t>Sucesiones</t>
-  </si>
-  <si>
     <t>Del 2 al 15 de agosto.</t>
   </si>
   <si>
@@ -171,9 +153,6 @@
     <t>Los días 1, 2, 3 y 4 de marzo.</t>
   </si>
   <si>
-    <t>Horas</t>
-  </si>
-  <si>
     <t>Quedaron a la 1 pm.</t>
   </si>
   <si>
@@ -198,9 +177,6 @@
     <t>A las 12h50.</t>
   </si>
   <si>
-    <t>Fechas</t>
-  </si>
-  <si>
     <t>19-42-1991</t>
   </si>
   <si>
@@ -213,9 +189,6 @@
     <t>50/2/1991</t>
   </si>
   <si>
-    <t>Duraciones</t>
-  </si>
-  <si>
     <t>seiscientos días</t>
   </si>
   <si>
@@ -324,9 +297,6 @@
     <t>son las dos de la tarde.</t>
   </si>
   <si>
-    <t>Fechas consecutivas</t>
-  </si>
-  <si>
     <t>el 1, el 2 y el 3 de enero.</t>
   </si>
   <si>
@@ -384,9 +354,6 @@
     <t>en el año 2000.</t>
   </si>
   <si>
-    <t>Finde</t>
-  </si>
-  <si>
     <t>un fin de semana más.</t>
   </si>
   <si>
@@ -399,9 +366,6 @@
     <t>dos días cada semana</t>
   </si>
   <si>
-    <t>Relativos</t>
-  </si>
-  <si>
     <t>ayer fuimos a comprar</t>
   </si>
   <si>
@@ -438,9 +402,6 @@
     <t>más de una hora y además 1 hora</t>
   </si>
   <si>
-    <t>Fracciones</t>
-  </si>
-  <si>
     <t>tres horas y cuarto</t>
   </si>
   <si>
@@ -852,12 +813,6 @@
     <t>Nos vemos dentro de 4 minutos, pero 7 años, 2 meses y tres días antes.</t>
   </si>
   <si>
-    <t>Granularidad</t>
-  </si>
-  <si>
-    <t>Referencia</t>
-  </si>
-  <si>
     <t>Ha pasado mucho tiempo.</t>
   </si>
   <si>
@@ -1938,12 +1893,6 @@
     <t>Los años setenta fueron convulsos.</t>
   </si>
   <si>
-    <t>Siglo</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
     <t>El Estado mantuvo durante años una lucha encarnizada contra la corrupción interna.</t>
   </si>
   <si>
@@ -2061,42 +2010,21 @@
     <t>Hoy se cumple el tercer día.</t>
   </si>
   <si>
-    <t>Día</t>
-  </si>
-  <si>
-    <t>Relativo</t>
-  </si>
-  <si>
     <t>El semestre pasado saqué peores notas.</t>
   </si>
   <si>
-    <t>Trimestre</t>
-  </si>
-  <si>
-    <t>Duración</t>
-  </si>
-  <si>
     <t>Unos días sí y otros no.</t>
   </si>
   <si>
-    <t>Expresión</t>
-  </si>
-  <si>
     <t>Fue un giro de última hora.</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>El 3 de octubre de 1932 antes de cristo.</t>
   </si>
   <si>
     <t>El 20 antes de cristo.</t>
   </si>
   <si>
-    <t>Cuatrimestre</t>
-  </si>
-  <si>
     <t>Las elecciones municipales del próximo domingo.</t>
   </si>
   <si>
@@ -2133,9 +2061,6 @@
     <t>Un bonito, largo y hermoso año.</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Hace un año y dos meses.</t>
   </si>
   <si>
@@ -2178,9 +2103,6 @@
     <t>Entre un año y 2 meses, y dos años y 3 meses.</t>
   </si>
   <si>
-    <t>Intervalo</t>
-  </si>
-  <si>
     <t>Normalmente ocurre durante la medianoche.</t>
   </si>
   <si>
@@ -2196,9 +2118,6 @@
     <t>Meses largos y penosos.</t>
   </si>
   <si>
-    <t>Año.</t>
-  </si>
-  <si>
     <t>Está próximo a mi casa. Soy el próximo en la lista.</t>
   </si>
   <si>
@@ -2208,9 +2127,6 @@
     <t>Durará de 3 a cinco días.</t>
   </si>
   <si>
-    <t>Meses</t>
-  </si>
-  <si>
     <t>Diariamente se ven en el trabajo.</t>
   </si>
   <si>
@@ -2457,7 +2373,76 @@
     <t>Son un par de días</t>
   </si>
   <si>
-    <t>Ambiguo</t>
+    <t>Problems with past</t>
+  </si>
+  <si>
+    <t>Problems with second ("segundo")</t>
+  </si>
+  <si>
+    <t>Ambiguous</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Trimester</t>
+  </si>
+  <si>
+    <t>Demostrative</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Consecutive dates</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Fractions</t>
+  </si>
+  <si>
+    <t>Granularity</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Century</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Misc</t>
   </si>
 </sst>
 </file>
@@ -2780,7 +2765,7 @@
   <dimension ref="A1:C286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2791,3152 +2776,3156 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>804</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B16" t="s">
-        <v>719</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>804</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B17" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B22" t="s">
-        <v>611</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
-        <v>727</v>
+        <v>644</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>674</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>784</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B26" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B28" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s">
-        <v>615</v>
+        <v>778</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B30" t="s">
-        <v>616</v>
+        <v>678</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B31" t="s">
-        <v>603</v>
+        <v>290</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s">
-        <v>285</v>
+        <v>659</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>787</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>676</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s">
-        <v>287</v>
+        <v>670</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>788</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s">
-        <v>288</v>
+        <v>666</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>788</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>788</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>788</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>788</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s">
-        <v>706</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>788</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s">
-        <v>621</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>290</v>
+        <v>340</v>
+      </c>
+      <c r="B46" t="s">
+        <v>608</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>788</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>625</v>
+        <v>341</v>
+      </c>
+      <c r="B47" t="s">
+        <v>609</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>788</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>626</v>
+        <v>342</v>
+      </c>
+      <c r="B48" t="s">
+        <v>607</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>788</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>627</v>
+        <v>343</v>
+      </c>
+      <c r="B49" t="s">
+        <v>681</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>788</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>628</v>
+        <v>344</v>
+      </c>
+      <c r="B50" t="s">
+        <v>606</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>788</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s">
-        <v>277</v>
+        <v>719</v>
       </c>
       <c r="C51" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>722</v>
       </c>
       <c r="C52" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>723</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>788</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>724</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>788</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B55" t="s">
-        <v>729</v>
+        <v>280</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>788</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>788</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B57" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>788</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B58" t="s">
-        <v>731</v>
+        <v>689</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>788</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B59" t="s">
-        <v>803</v>
+        <v>690</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s">
-        <v>802</v>
+        <v>283</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>788</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B61" t="s">
-        <v>801</v>
+        <v>284</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>788</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s">
-        <v>799</v>
+        <v>621</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>788</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B64" t="s">
-        <v>798</v>
+        <v>638</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>788</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B65" t="s">
-        <v>797</v>
+        <v>697</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>788</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B66" t="s">
-        <v>796</v>
+        <v>645</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>788</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B67" t="s">
-        <v>795</v>
+        <v>648</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>788</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s">
-        <v>794</v>
+        <v>694</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>788</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B69" t="s">
-        <v>793</v>
+        <v>652</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>788</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B70" t="s">
-        <v>792</v>
+        <v>653</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>788</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B71" t="s">
-        <v>791</v>
+        <v>654</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>788</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s">
-        <v>790</v>
+        <v>675</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>788</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B73" t="s">
-        <v>789</v>
+        <v>695</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>788</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B74" t="s">
+        <v>776</v>
+      </c>
+      <c r="C74" t="s">
         <v>788</v>
-      </c>
-      <c r="C74" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B75" t="s">
-        <v>787</v>
+        <v>662</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>789</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B76" t="s">
-        <v>292</v>
+        <v>642</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>790</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B77" t="s">
-        <v>786</v>
+        <v>647</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>790</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B78" t="s">
-        <v>774</v>
+        <v>215</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>790</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>651</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>790</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>663</v>
       </c>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B84" t="s">
-        <v>775</v>
+        <v>272</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>605</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B88" t="s">
-        <v>776</v>
+        <v>382</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B89" t="s">
-        <v>777</v>
+        <v>383</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B90" t="s">
-        <v>778</v>
+        <v>384</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B91" t="s">
-        <v>779</v>
+        <v>385</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B92" t="s">
-        <v>780</v>
+        <v>264</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B93" t="s">
-        <v>781</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B94" t="s">
-        <v>782</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B95" t="s">
-        <v>783</v>
+        <v>278</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B96" t="s">
-        <v>784</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B97" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B98" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B99" t="s">
-        <v>754</v>
+        <v>705</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B100" t="s">
-        <v>755</v>
+        <v>624</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B101" t="s">
-        <v>756</v>
+        <v>625</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B102" t="s">
-        <v>757</v>
+        <v>286</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B103" t="s">
-        <v>758</v>
+        <v>185</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>790</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B104" t="s">
-        <v>759</v>
+        <v>701</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>791</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B105" t="s">
-        <v>760</v>
+        <v>276</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>791</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B106" t="s">
-        <v>761</v>
+        <v>702</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>791</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B107" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>791</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B108" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>791</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B109" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>791</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B110" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>791</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B111" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C111" t="s">
-        <v>150</v>
+        <v>791</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B112" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>792</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B113" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C113" t="s">
-        <v>150</v>
+        <v>792</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B114" t="s">
         <v>769</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>792</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B115" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
+        <v>792</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B116" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>793</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B117" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>793</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B118" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C118" t="s">
-        <v>150</v>
+        <v>793</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B119" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>793</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B120" t="s">
-        <v>161</v>
+        <v>763</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>793</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>762</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>793</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>761</v>
       </c>
       <c r="C122" t="s">
-        <v>56</v>
+        <v>793</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B123" t="s">
-        <v>293</v>
+        <v>760</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>793</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B124" t="s">
-        <v>294</v>
+        <v>759</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>793</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B125" t="s">
-        <v>746</v>
+        <v>277</v>
       </c>
       <c r="C125" t="s">
-        <v>56</v>
+        <v>793</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B126" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="C126" t="s">
-        <v>61</v>
+        <v>793</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>746</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>793</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>793</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B129" t="s">
-        <v>748</v>
+        <v>285</v>
       </c>
       <c r="C129" t="s">
-        <v>678</v>
+        <v>794</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B130" t="s">
-        <v>749</v>
+        <v>164</v>
       </c>
       <c r="C130" t="s">
-        <v>56</v>
+        <v>794</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B131" t="s">
-        <v>750</v>
+        <v>41</v>
       </c>
       <c r="C131" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B132" t="s">
-        <v>751</v>
+        <v>42</v>
       </c>
       <c r="C132" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B133" t="s">
-        <v>752</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B134" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="C134" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B135" t="s">
-        <v>296</v>
+        <v>747</v>
       </c>
       <c r="C135" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B136" t="s">
-        <v>734</v>
+        <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B137" t="s">
-        <v>712</v>
+        <v>47</v>
       </c>
       <c r="C137" t="s">
-        <v>107</v>
+        <v>795</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B138" t="s">
-        <v>713</v>
+        <v>48</v>
       </c>
       <c r="C138" t="s">
-        <v>107</v>
+        <v>795</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>748</v>
       </c>
       <c r="C139" t="s">
-        <v>123</v>
+        <v>795</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B140" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="C140" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B141" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="C141" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B142" t="s">
-        <v>298</v>
+        <v>751</v>
       </c>
       <c r="C142" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>752</v>
       </c>
       <c r="C143" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B144" t="s">
-        <v>281</v>
+        <v>753</v>
       </c>
       <c r="C144" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B145" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="C145" t="s">
-        <v>123</v>
+        <v>795</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B146" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="C146" t="s">
-        <v>123</v>
+        <v>795</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B147" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="C147" t="s">
-        <v>123</v>
+        <v>795</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B148" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="C148" t="s">
-        <v>275</v>
+        <v>795</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B149" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C149" t="s">
-        <v>107</v>
+        <v>795</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="B150" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="C150" t="s">
-        <v>47</v>
+        <v>795</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B151" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="C151" t="s">
-        <v>47</v>
+        <v>795</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B152" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="C152" t="s">
-        <v>47</v>
+        <v>795</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B153" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="C153" t="s">
-        <v>47</v>
+        <v>795</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B154" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C154" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B155" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C155" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B156" t="s">
         <v>732</v>
       </c>
       <c r="C156" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B157" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="C157" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B158" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="C158" t="s">
-        <v>637</v>
+        <v>795</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>735</v>
       </c>
       <c r="C159" t="s">
-        <v>716</v>
+        <v>795</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B160" t="s">
-        <v>44</v>
+        <v>736</v>
       </c>
       <c r="C160" t="s">
-        <v>716</v>
+        <v>795</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B161" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
-        <v>42</v>
+        <v>795</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B162" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C162" t="s">
-        <v>42</v>
+        <v>795</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B163" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C163" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B164" t="s">
-        <v>273</v>
+        <v>713</v>
       </c>
       <c r="C164" t="s">
-        <v>123</v>
+        <v>795</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B165" t="s">
-        <v>172</v>
+        <v>714</v>
       </c>
       <c r="C165" t="s">
-        <v>123</v>
+        <v>795</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B166" t="s">
-        <v>272</v>
+        <v>715</v>
       </c>
       <c r="C166" t="s">
-        <v>123</v>
+        <v>795</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B167" t="s">
-        <v>300</v>
+        <v>737</v>
       </c>
       <c r="C167" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B168" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="C168" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>739</v>
       </c>
       <c r="C169" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B170" t="s">
-        <v>644</v>
+        <v>740</v>
       </c>
       <c r="C170" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="B171" t="s">
-        <v>177</v>
+        <v>741</v>
       </c>
       <c r="C171" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B172" t="s">
-        <v>178</v>
+        <v>742</v>
       </c>
       <c r="C172" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="B173" t="s">
-        <v>638</v>
+        <v>743</v>
       </c>
       <c r="C173" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B174" t="s">
-        <v>639</v>
+        <v>744</v>
       </c>
       <c r="C174" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B175" t="s">
-        <v>640</v>
+        <v>745</v>
       </c>
       <c r="C175" t="s">
-        <v>675</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B176" t="s">
-        <v>182</v>
+        <v>717</v>
       </c>
       <c r="C176" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B177" t="s">
-        <v>641</v>
+        <v>148</v>
       </c>
       <c r="C177" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B178" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C178" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B179" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="C179" t="s">
-        <v>637</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B180" t="s">
-        <v>725</v>
+        <v>37</v>
       </c>
       <c r="C180" t="s">
-        <v>716</v>
+        <v>796</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B181" t="s">
-        <v>646</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s">
-        <v>123</v>
+        <v>796</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B182" t="s">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="C182" t="s">
-        <v>636</v>
+        <v>796</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B183" t="s">
-        <v>648</v>
+        <v>200</v>
       </c>
       <c r="C183" t="s">
-        <v>123</v>
+        <v>796</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B184" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="C184" t="s">
-        <v>123</v>
+        <v>796</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B185" t="s">
-        <v>650</v>
+        <v>194</v>
       </c>
       <c r="C185" t="s">
-        <v>701</v>
+        <v>797</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B186" t="s">
-        <v>645</v>
+        <v>262</v>
       </c>
       <c r="C186" t="s">
-        <v>636</v>
+        <v>798</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="C187" t="s">
-        <v>636</v>
+        <v>798</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="C188" t="s">
-        <v>636</v>
+        <v>798</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B189" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="C189" t="s">
-        <v>636</v>
+        <v>798</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B190" t="s">
-        <v>301</v>
+        <v>685</v>
       </c>
       <c r="C190" t="s">
-        <v>56</v>
+        <v>798</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B191" t="s">
-        <v>302</v>
+        <v>684</v>
       </c>
       <c r="C191" t="s">
-        <v>680</v>
+        <v>798</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>633</v>
       </c>
       <c r="C192" t="s">
-        <v>56</v>
+        <v>798</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B193" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="C193" t="s">
-        <v>637</v>
+        <v>798</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B194" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C194" t="s">
-        <v>123</v>
+        <v>798</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B195" t="s">
-        <v>652</v>
+        <v>696</v>
       </c>
       <c r="C195" t="s">
-        <v>150</v>
+        <v>798</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B196" t="s">
-        <v>653</v>
+        <v>212</v>
       </c>
       <c r="C196" t="s">
-        <v>678</v>
+        <v>798</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B197" t="s">
-        <v>654</v>
+        <v>779</v>
       </c>
       <c r="C197" t="s">
-        <v>678</v>
+        <v>798</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B198" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="C198" t="s">
-        <v>61</v>
+        <v>799</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B199" t="s">
-        <v>656</v>
+        <v>162</v>
       </c>
       <c r="C199" t="s">
-        <v>42</v>
+        <v>799</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B200" t="s">
-        <v>718</v>
+        <v>641</v>
       </c>
       <c r="C200" t="s">
-        <v>123</v>
+        <v>799</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C201" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>669</v>
       </c>
       <c r="C202" t="s">
-        <v>42</v>
+        <v>799</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>720</v>
       </c>
       <c r="C203" t="s">
-        <v>678</v>
+        <v>800</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>636</v>
       </c>
       <c r="C204" t="s">
-        <v>678</v>
+        <v>800</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B205" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="C205" t="s">
-        <v>678</v>
+        <v>800</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B206" t="s">
-        <v>658</v>
+        <v>196</v>
       </c>
       <c r="C206" t="s">
-        <v>275</v>
+        <v>800</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C207" t="s">
-        <v>716</v>
+        <v>800</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="B208" t="s">
-        <v>724</v>
+        <v>640</v>
       </c>
       <c r="C208" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B209" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="C209" t="s">
-        <v>701</v>
+        <v>800</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B210" t="s">
-        <v>659</v>
+        <v>230</v>
       </c>
       <c r="C210" t="s">
-        <v>685</v>
+        <v>800</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B211" t="s">
-        <v>660</v>
+        <v>231</v>
       </c>
       <c r="C211" t="s">
-        <v>701</v>
+        <v>800</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B212" t="s">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="C212" t="s">
-        <v>637</v>
+        <v>800</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B213" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="C213" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B214" t="s">
-        <v>304</v>
+        <v>677</v>
       </c>
       <c r="C214" t="s">
-        <v>107</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B215" t="s">
-        <v>664</v>
+        <v>258</v>
       </c>
       <c r="C215" t="s">
-        <v>685</v>
+        <v>800</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B216" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C216" t="s">
-        <v>123</v>
+        <v>800</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B217" t="s">
-        <v>222</v>
+        <v>665</v>
       </c>
       <c r="C217" t="s">
-        <v>275</v>
+        <v>800</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B218" t="s">
-        <v>723</v>
+        <v>291</v>
       </c>
       <c r="C218" t="s">
-        <v>701</v>
+        <v>800</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B219" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="C219" t="s">
-        <v>123</v>
+        <v>800</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="B220" t="s">
-        <v>225</v>
+        <v>660</v>
       </c>
       <c r="C220" t="s">
-        <v>701</v>
+        <v>800</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="B221" t="s">
-        <v>226</v>
+        <v>589</v>
       </c>
       <c r="C221" t="s">
-        <v>42</v>
+        <v>800</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B222" t="s">
-        <v>665</v>
+        <v>590</v>
       </c>
       <c r="C222" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B223" t="s">
-        <v>666</v>
+        <v>23</v>
       </c>
       <c r="C223" t="s">
-        <v>107</v>
+        <v>800</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B224" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="C224" t="s">
-        <v>685</v>
+        <v>800</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="B225" t="s">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="C225" t="s">
-        <v>123</v>
+        <v>800</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B226" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="C226" t="s">
-        <v>685</v>
+        <v>800</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B227" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="C227" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B228" t="s">
-        <v>669</v>
+        <v>260</v>
       </c>
       <c r="C228" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B229" t="s">
-        <v>670</v>
+        <v>159</v>
       </c>
       <c r="C229" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="B230" t="s">
-        <v>671</v>
+        <v>259</v>
       </c>
       <c r="C230" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B231" t="s">
-        <v>235</v>
+        <v>683</v>
       </c>
       <c r="C231" t="s">
-        <v>123</v>
+        <v>800</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B232" t="s">
-        <v>699</v>
+        <v>627</v>
       </c>
       <c r="C232" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B233" t="s">
-        <v>721</v>
+        <v>169</v>
       </c>
       <c r="C233" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B234" t="s">
-        <v>703</v>
+        <v>629</v>
       </c>
       <c r="C234" t="s">
-        <v>722</v>
+        <v>800</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="B235" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="C235" t="s">
-        <v>123</v>
+        <v>800</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B236" t="s">
-        <v>240</v>
+        <v>632</v>
       </c>
       <c r="C236" t="s">
-        <v>123</v>
+        <v>800</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B237" t="s">
-        <v>705</v>
+        <v>634</v>
       </c>
       <c r="C237" t="s">
-        <v>716</v>
+        <v>800</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="B238" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="C238" t="s">
-        <v>675</v>
+        <v>800</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B239" t="s">
-        <v>242</v>
+        <v>646</v>
       </c>
       <c r="C239" t="s">
-        <v>678</v>
+        <v>800</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B240" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C240" t="s">
-        <v>678</v>
+        <v>800</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>650</v>
       </c>
       <c r="C241" t="s">
-        <v>678</v>
+        <v>800</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C242" t="s">
-        <v>685</v>
+        <v>800</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="B243" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="C243" t="s">
-        <v>637</v>
+        <v>800</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="B244" t="s">
-        <v>728</v>
+        <v>227</v>
       </c>
       <c r="C244" t="s">
-        <v>678</v>
+        <v>800</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="B245" t="s">
-        <v>700</v>
+        <v>656</v>
       </c>
       <c r="C245" t="s">
-        <v>681</v>
+        <v>800</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B246" t="s">
-        <v>697</v>
+        <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>678</v>
+        <v>97</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B247" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C247" t="s">
-        <v>678</v>
+        <v>97</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B248" t="s">
-        <v>696</v>
+        <v>591</v>
       </c>
       <c r="C248" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="B249" t="s">
-        <v>695</v>
+        <v>592</v>
       </c>
       <c r="C249" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="B250" t="s">
-        <v>694</v>
+        <v>593</v>
       </c>
       <c r="C250" t="s">
-        <v>681</v>
+        <v>97</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B251" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="C251" t="s">
-        <v>275</v>
+        <v>97</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="B252" t="s">
-        <v>271</v>
+        <v>595</v>
       </c>
       <c r="C252" t="s">
-        <v>678</v>
+        <v>97</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="B253" t="s">
-        <v>692</v>
+        <v>596</v>
       </c>
       <c r="C253" t="s">
-        <v>675</v>
+        <v>97</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="B254" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="C254" t="s">
-        <v>678</v>
+        <v>97</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B255" t="s">
-        <v>690</v>
+        <v>549</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="C255" t="s">
-        <v>681</v>
+        <v>97</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B256" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C256" t="s">
-        <v>678</v>
+        <v>97</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B257" t="s">
-        <v>305</v>
+        <v>688</v>
       </c>
       <c r="C257" t="s">
-        <v>688</v>
+        <v>97</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="B258" t="s">
-        <v>306</v>
+        <v>711</v>
       </c>
       <c r="C258" t="s">
-        <v>678</v>
+        <v>97</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="B259" t="s">
-        <v>307</v>
+        <v>622</v>
       </c>
       <c r="C259" t="s">
-        <v>685</v>
+        <v>97</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="B260" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C260" t="s">
-        <v>685</v>
+        <v>97</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="B261" t="s">
-        <v>687</v>
+        <v>649</v>
       </c>
       <c r="C261" t="s">
-        <v>636</v>
+        <v>97</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B262" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="C262" t="s">
-        <v>685</v>
+        <v>97</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="B263" t="s">
-        <v>263</v>
+        <v>671</v>
       </c>
       <c r="C263" t="s">
-        <v>678</v>
+        <v>97</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B264" t="s">
-        <v>264</v>
+        <v>777</v>
       </c>
       <c r="C264" t="s">
-        <v>637</v>
+        <v>97</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B265" t="s">
-        <v>684</v>
+        <v>630</v>
       </c>
       <c r="C265" t="s">
-        <v>683</v>
+        <v>801</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="B266" t="s">
-        <v>682</v>
+        <v>628</v>
       </c>
       <c r="C266" t="s">
-        <v>150</v>
+        <v>801</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="B267" t="s">
-        <v>674</v>
+        <v>180</v>
       </c>
       <c r="C267" t="s">
-        <v>675</v>
+        <v>801</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B268" t="s">
-        <v>673</v>
+        <v>181</v>
       </c>
       <c r="C268" t="s">
-        <v>123</v>
+        <v>801</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B269" t="s">
-        <v>309</v>
+        <v>682</v>
       </c>
       <c r="C269" t="s">
-        <v>681</v>
+        <v>801</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="B270" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C270" t="s">
-        <v>680</v>
+        <v>801</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="B271" t="s">
-        <v>679</v>
+        <v>617</v>
       </c>
       <c r="C271" t="s">
-        <v>678</v>
+        <v>801</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="B272" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="C272" t="s">
-        <v>678</v>
+        <v>801</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B273" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="C273" t="s">
-        <v>678</v>
+        <v>801</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="B274" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="C274" t="s">
-        <v>637</v>
+        <v>801</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="B275" t="s">
-        <v>632</v>
+        <v>39</v>
       </c>
       <c r="C275" t="s">
-        <v>636</v>
+        <v>802</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B276" t="s">
-        <v>631</v>
+        <v>40</v>
       </c>
       <c r="C276" t="s">
-        <v>636</v>
+        <v>802</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B277" t="s">
-        <v>630</v>
+        <v>165</v>
       </c>
       <c r="C277" t="s">
-        <v>636</v>
+        <v>802</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B278" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C278" t="s">
-        <v>636</v>
+        <v>802</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="B279" t="s">
-        <v>634</v>
+        <v>195</v>
       </c>
       <c r="C279" t="s">
-        <v>637</v>
+        <v>802</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B280" t="s">
-        <v>635</v>
+        <v>213</v>
       </c>
       <c r="C280" t="s">
-        <v>637</v>
+        <v>802</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B281" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="C281" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B282" t="s">
-        <v>804</v>
+        <v>691</v>
       </c>
       <c r="C282" t="s">
-        <v>61</v>
+        <v>658</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B283" t="s">
-        <v>805</v>
+        <v>668</v>
       </c>
       <c r="C283" t="s">
-        <v>107</v>
+        <v>658</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B284" t="s">
-        <v>806</v>
+        <v>657</v>
       </c>
       <c r="C284" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B285" t="s">
-        <v>807</v>
+        <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B286" t="s">
-        <v>808</v>
+        <v>655</v>
       </c>
       <c r="C286" t="s">
-        <v>809</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C286"/>
+  <autoFilter ref="B1:C286">
+    <sortState ref="B2:C286">
+      <sortCondition ref="C1:C286"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -5954,222 +5943,222 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
@@ -6199,12 +6188,12 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
@@ -6229,412 +6218,412 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
@@ -6644,802 +6633,802 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/annotador-core/src/main/resources/rules/HOURGLASS-SYNTHETIC.xlsx
+++ b/annotador-core/src/main/resources/rules/HOURGLASS-SYNTHETIC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="526">
   <si>
     <t>Pasado un tiempo.</t>
   </si>
@@ -501,9 +501,6 @@
     <t>A los 2092 capítulos</t>
   </si>
   <si>
-    <t>TEXT</t>
-  </si>
-  <si>
     <t>TAG</t>
   </si>
   <si>
@@ -831,9 +828,6 @@
     <t>A los 2092 capítulos.</t>
   </si>
   <si>
-    <t>En nombre del Institut professionnel des agents immobiliers (IPI), por Mes Y. Paquay y H. Nyssen, avocats.</t>
-  </si>
-  <si>
     <t>El 10 de Junio de 1991.</t>
   </si>
   <si>
@@ -849,9 +843,6 @@
     <t>En 1991.</t>
   </si>
   <si>
-    <t>El 1991.</t>
-  </si>
-  <si>
     <t>El día 2 de abril.</t>
   </si>
   <si>
@@ -888,9 +879,6 @@
     <t>Algún mes, aquel bonito; largo aunque hermoso mes.</t>
   </si>
   <si>
-    <t>Hoy, 3 de marzo de 1991.</t>
-  </si>
-  <si>
     <t>El primer trimestre del año.</t>
   </si>
   <si>
@@ -900,882 +888,15 @@
     <t>Cada dos meses.</t>
   </si>
   <si>
-    <t>Durante el cuatrimestre primero ocurrió .</t>
-  </si>
-  <si>
     <t>En un bienio.</t>
   </si>
   <si>
-    <t>Hoy, lunes, se armó la marimorena.</t>
-  </si>
-  <si>
-    <t>Hoy, 3 de marzo de 1991, se armó la marimorena.</t>
-  </si>
-  <si>
     <t>Al cumplirse hoy la segunda jornada de la protesta.</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
-    <t>00006</t>
-  </si>
-  <si>
-    <t>00007</t>
-  </si>
-  <si>
-    <t>00008</t>
-  </si>
-  <si>
-    <t>00009</t>
-  </si>
-  <si>
-    <t>00010</t>
-  </si>
-  <si>
-    <t>00011</t>
-  </si>
-  <si>
-    <t>00012</t>
-  </si>
-  <si>
-    <t>00013</t>
-  </si>
-  <si>
-    <t>00014</t>
-  </si>
-  <si>
-    <t>00015</t>
-  </si>
-  <si>
-    <t>00016</t>
-  </si>
-  <si>
-    <t>00017</t>
-  </si>
-  <si>
-    <t>00018</t>
-  </si>
-  <si>
-    <t>00019</t>
-  </si>
-  <si>
-    <t>00020</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>00022</t>
-  </si>
-  <si>
-    <t>00023</t>
-  </si>
-  <si>
-    <t>00024</t>
-  </si>
-  <si>
-    <t>00025</t>
-  </si>
-  <si>
-    <t>00026</t>
-  </si>
-  <si>
-    <t>00027</t>
-  </si>
-  <si>
-    <t>00028</t>
-  </si>
-  <si>
-    <t>00029</t>
-  </si>
-  <si>
-    <t>00030</t>
-  </si>
-  <si>
-    <t>00031</t>
-  </si>
-  <si>
-    <t>00032</t>
-  </si>
-  <si>
-    <t>00033</t>
-  </si>
-  <si>
-    <t>00034</t>
-  </si>
-  <si>
-    <t>00035</t>
-  </si>
-  <si>
-    <t>00036</t>
-  </si>
-  <si>
-    <t>00037</t>
-  </si>
-  <si>
-    <t>00038</t>
-  </si>
-  <si>
-    <t>00039</t>
-  </si>
-  <si>
-    <t>00040</t>
-  </si>
-  <si>
-    <t>00041</t>
-  </si>
-  <si>
-    <t>00042</t>
-  </si>
-  <si>
-    <t>00043</t>
-  </si>
-  <si>
-    <t>00044</t>
-  </si>
-  <si>
-    <t>00045</t>
-  </si>
-  <si>
-    <t>00046</t>
-  </si>
-  <si>
-    <t>00047</t>
-  </si>
-  <si>
-    <t>00048</t>
-  </si>
-  <si>
-    <t>00049</t>
-  </si>
-  <si>
-    <t>00050</t>
-  </si>
-  <si>
-    <t>00051</t>
-  </si>
-  <si>
-    <t>00052</t>
-  </si>
-  <si>
-    <t>00053</t>
-  </si>
-  <si>
-    <t>00054</t>
-  </si>
-  <si>
-    <t>00055</t>
-  </si>
-  <si>
-    <t>00056</t>
-  </si>
-  <si>
-    <t>00057</t>
-  </si>
-  <si>
-    <t>00058</t>
-  </si>
-  <si>
-    <t>00059</t>
-  </si>
-  <si>
-    <t>00060</t>
-  </si>
-  <si>
-    <t>00061</t>
-  </si>
-  <si>
-    <t>00062</t>
-  </si>
-  <si>
-    <t>00063</t>
-  </si>
-  <si>
-    <t>00064</t>
-  </si>
-  <si>
-    <t>00065</t>
-  </si>
-  <si>
-    <t>00066</t>
-  </si>
-  <si>
-    <t>00067</t>
-  </si>
-  <si>
-    <t>00068</t>
-  </si>
-  <si>
-    <t>00069</t>
-  </si>
-  <si>
-    <t>00070</t>
-  </si>
-  <si>
-    <t>00071</t>
-  </si>
-  <si>
-    <t>00072</t>
-  </si>
-  <si>
-    <t>00073</t>
-  </si>
-  <si>
-    <t>00074</t>
-  </si>
-  <si>
-    <t>00075</t>
-  </si>
-  <si>
-    <t>00076</t>
-  </si>
-  <si>
-    <t>00077</t>
-  </si>
-  <si>
-    <t>00078</t>
-  </si>
-  <si>
-    <t>00079</t>
-  </si>
-  <si>
-    <t>00080</t>
-  </si>
-  <si>
-    <t>00081</t>
-  </si>
-  <si>
-    <t>00082</t>
-  </si>
-  <si>
-    <t>00083</t>
-  </si>
-  <si>
-    <t>00084</t>
-  </si>
-  <si>
-    <t>00085</t>
-  </si>
-  <si>
-    <t>00086</t>
-  </si>
-  <si>
-    <t>00087</t>
-  </si>
-  <si>
-    <t>00088</t>
-  </si>
-  <si>
-    <t>00089</t>
-  </si>
-  <si>
-    <t>00090</t>
-  </si>
-  <si>
-    <t>00091</t>
-  </si>
-  <si>
-    <t>00092</t>
-  </si>
-  <si>
-    <t>00093</t>
-  </si>
-  <si>
-    <t>00094</t>
-  </si>
-  <si>
-    <t>00095</t>
-  </si>
-  <si>
-    <t>00096</t>
-  </si>
-  <si>
-    <t>00097</t>
-  </si>
-  <si>
-    <t>00098</t>
-  </si>
-  <si>
-    <t>00099</t>
-  </si>
-  <si>
-    <t>00100</t>
-  </si>
-  <si>
-    <t>00101</t>
-  </si>
-  <si>
-    <t>00102</t>
-  </si>
-  <si>
-    <t>00103</t>
-  </si>
-  <si>
-    <t>00104</t>
-  </si>
-  <si>
-    <t>00105</t>
-  </si>
-  <si>
-    <t>00106</t>
-  </si>
-  <si>
-    <t>00107</t>
-  </si>
-  <si>
-    <t>00108</t>
-  </si>
-  <si>
-    <t>00109</t>
-  </si>
-  <si>
-    <t>00110</t>
-  </si>
-  <si>
-    <t>00111</t>
-  </si>
-  <si>
-    <t>00112</t>
-  </si>
-  <si>
-    <t>00113</t>
-  </si>
-  <si>
-    <t>00114</t>
-  </si>
-  <si>
-    <t>00115</t>
-  </si>
-  <si>
-    <t>00116</t>
-  </si>
-  <si>
-    <t>00117</t>
-  </si>
-  <si>
-    <t>00118</t>
-  </si>
-  <si>
-    <t>00119</t>
-  </si>
-  <si>
-    <t>00120</t>
-  </si>
-  <si>
-    <t>00121</t>
-  </si>
-  <si>
-    <t>00122</t>
-  </si>
-  <si>
-    <t>00123</t>
-  </si>
-  <si>
-    <t>00124</t>
-  </si>
-  <si>
-    <t>00125</t>
-  </si>
-  <si>
-    <t>00126</t>
-  </si>
-  <si>
-    <t>00127</t>
-  </si>
-  <si>
-    <t>00128</t>
-  </si>
-  <si>
-    <t>00129</t>
-  </si>
-  <si>
-    <t>00130</t>
-  </si>
-  <si>
-    <t>00131</t>
-  </si>
-  <si>
-    <t>00132</t>
-  </si>
-  <si>
-    <t>00133</t>
-  </si>
-  <si>
-    <t>00134</t>
-  </si>
-  <si>
-    <t>00135</t>
-  </si>
-  <si>
-    <t>00136</t>
-  </si>
-  <si>
-    <t>00137</t>
-  </si>
-  <si>
-    <t>00138</t>
-  </si>
-  <si>
-    <t>00139</t>
-  </si>
-  <si>
-    <t>00140</t>
-  </si>
-  <si>
-    <t>00141</t>
-  </si>
-  <si>
-    <t>00142</t>
-  </si>
-  <si>
-    <t>00143</t>
-  </si>
-  <si>
-    <t>00144</t>
-  </si>
-  <si>
-    <t>00145</t>
-  </si>
-  <si>
-    <t>00146</t>
-  </si>
-  <si>
-    <t>00147</t>
-  </si>
-  <si>
-    <t>00148</t>
-  </si>
-  <si>
-    <t>00149</t>
-  </si>
-  <si>
-    <t>00150</t>
-  </si>
-  <si>
-    <t>00151</t>
-  </si>
-  <si>
-    <t>00152</t>
-  </si>
-  <si>
-    <t>00153</t>
-  </si>
-  <si>
-    <t>00154</t>
-  </si>
-  <si>
-    <t>00155</t>
-  </si>
-  <si>
-    <t>00156</t>
-  </si>
-  <si>
-    <t>00157</t>
-  </si>
-  <si>
-    <t>00158</t>
-  </si>
-  <si>
-    <t>00159</t>
-  </si>
-  <si>
-    <t>00160</t>
-  </si>
-  <si>
-    <t>00161</t>
-  </si>
-  <si>
-    <t>00162</t>
-  </si>
-  <si>
-    <t>00163</t>
-  </si>
-  <si>
-    <t>00164</t>
-  </si>
-  <si>
-    <t>00165</t>
-  </si>
-  <si>
-    <t>00166</t>
-  </si>
-  <si>
-    <t>00167</t>
-  </si>
-  <si>
-    <t>00168</t>
-  </si>
-  <si>
-    <t>00169</t>
-  </si>
-  <si>
-    <t>00170</t>
-  </si>
-  <si>
-    <t>00171</t>
-  </si>
-  <si>
-    <t>00172</t>
-  </si>
-  <si>
-    <t>00173</t>
-  </si>
-  <si>
-    <t>00174</t>
-  </si>
-  <si>
-    <t>00175</t>
-  </si>
-  <si>
-    <t>00176</t>
-  </si>
-  <si>
-    <t>00177</t>
-  </si>
-  <si>
-    <t>00178</t>
-  </si>
-  <si>
-    <t>00179</t>
-  </si>
-  <si>
-    <t>00180</t>
-  </si>
-  <si>
-    <t>00181</t>
-  </si>
-  <si>
-    <t>00182</t>
-  </si>
-  <si>
-    <t>00183</t>
-  </si>
-  <si>
-    <t>00184</t>
-  </si>
-  <si>
-    <t>00185</t>
-  </si>
-  <si>
-    <t>00186</t>
-  </si>
-  <si>
-    <t>00187</t>
-  </si>
-  <si>
-    <t>00188</t>
-  </si>
-  <si>
-    <t>00189</t>
-  </si>
-  <si>
-    <t>00190</t>
-  </si>
-  <si>
-    <t>00191</t>
-  </si>
-  <si>
-    <t>00192</t>
-  </si>
-  <si>
-    <t>00193</t>
-  </si>
-  <si>
-    <t>00194</t>
-  </si>
-  <si>
-    <t>00195</t>
-  </si>
-  <si>
-    <t>00196</t>
-  </si>
-  <si>
-    <t>00197</t>
-  </si>
-  <si>
-    <t>00198</t>
-  </si>
-  <si>
-    <t>00199</t>
-  </si>
-  <si>
-    <t>00200</t>
-  </si>
-  <si>
-    <t>00201</t>
-  </si>
-  <si>
-    <t>00202</t>
-  </si>
-  <si>
-    <t>00203</t>
-  </si>
-  <si>
-    <t>00204</t>
-  </si>
-  <si>
-    <t>00205</t>
-  </si>
-  <si>
-    <t>00206</t>
-  </si>
-  <si>
-    <t>00207</t>
-  </si>
-  <si>
-    <t>00208</t>
-  </si>
-  <si>
-    <t>00209</t>
-  </si>
-  <si>
-    <t>00210</t>
-  </si>
-  <si>
-    <t>00211</t>
-  </si>
-  <si>
-    <t>00212</t>
-  </si>
-  <si>
-    <t>00213</t>
-  </si>
-  <si>
-    <t>00214</t>
-  </si>
-  <si>
-    <t>00215</t>
-  </si>
-  <si>
-    <t>00216</t>
-  </si>
-  <si>
-    <t>00217</t>
-  </si>
-  <si>
-    <t>00218</t>
-  </si>
-  <si>
-    <t>00219</t>
-  </si>
-  <si>
-    <t>00220</t>
-  </si>
-  <si>
-    <t>00221</t>
-  </si>
-  <si>
-    <t>00222</t>
-  </si>
-  <si>
-    <t>00223</t>
-  </si>
-  <si>
-    <t>00224</t>
-  </si>
-  <si>
-    <t>00225</t>
-  </si>
-  <si>
-    <t>00226</t>
-  </si>
-  <si>
-    <t>00227</t>
-  </si>
-  <si>
-    <t>00228</t>
-  </si>
-  <si>
-    <t>00229</t>
-  </si>
-  <si>
-    <t>00230</t>
-  </si>
-  <si>
-    <t>00231</t>
-  </si>
-  <si>
-    <t>00232</t>
-  </si>
-  <si>
-    <t>00233</t>
-  </si>
-  <si>
-    <t>00234</t>
-  </si>
-  <si>
-    <t>00235</t>
-  </si>
-  <si>
-    <t>00236</t>
-  </si>
-  <si>
-    <t>00237</t>
-  </si>
-  <si>
-    <t>00238</t>
-  </si>
-  <si>
-    <t>00239</t>
-  </si>
-  <si>
-    <t>00240</t>
-  </si>
-  <si>
-    <t>00241</t>
-  </si>
-  <si>
-    <t>00242</t>
-  </si>
-  <si>
-    <t>00243</t>
-  </si>
-  <si>
-    <t>00244</t>
-  </si>
-  <si>
-    <t>00245</t>
-  </si>
-  <si>
-    <t>00246</t>
-  </si>
-  <si>
-    <t>00247</t>
-  </si>
-  <si>
-    <t>00248</t>
-  </si>
-  <si>
-    <t>00249</t>
-  </si>
-  <si>
-    <t>00250</t>
-  </si>
-  <si>
-    <t>00251</t>
-  </si>
-  <si>
-    <t>00252</t>
-  </si>
-  <si>
-    <t>00253</t>
-  </si>
-  <si>
-    <t>00254</t>
-  </si>
-  <si>
-    <t>00255</t>
-  </si>
-  <si>
-    <t>00256</t>
-  </si>
-  <si>
-    <t>00257</t>
-  </si>
-  <si>
-    <t>00258</t>
-  </si>
-  <si>
-    <t>00259</t>
-  </si>
-  <si>
-    <t>00260</t>
-  </si>
-  <si>
-    <t>00261</t>
-  </si>
-  <si>
-    <t>00262</t>
-  </si>
-  <si>
-    <t>00263</t>
-  </si>
-  <si>
-    <t>00264</t>
-  </si>
-  <si>
-    <t>00265</t>
-  </si>
-  <si>
-    <t>00266</t>
-  </si>
-  <si>
-    <t>00267</t>
-  </si>
-  <si>
-    <t>00268</t>
-  </si>
-  <si>
-    <t>00269</t>
-  </si>
-  <si>
-    <t>00270</t>
-  </si>
-  <si>
-    <t>00271</t>
-  </si>
-  <si>
-    <t>00272</t>
-  </si>
-  <si>
-    <t>00273</t>
-  </si>
-  <si>
-    <t>00274</t>
-  </si>
-  <si>
-    <t>00275</t>
-  </si>
-  <si>
-    <t>00276</t>
-  </si>
-  <si>
-    <t>00277</t>
-  </si>
-  <si>
-    <t>00278</t>
-  </si>
-  <si>
-    <t>00279</t>
-  </si>
-  <si>
-    <t>00280</t>
-  </si>
-  <si>
-    <t>00281</t>
-  </si>
-  <si>
-    <t>00282</t>
-  </si>
-  <si>
-    <t>00283</t>
-  </si>
-  <si>
-    <t>00284</t>
-  </si>
-  <si>
-    <t>00285</t>
-  </si>
-  <si>
-    <t>En mayo me gusta ir con Abril al campo, sobre todo los jueves y los domingos…</t>
-  </si>
-  <si>
     <t>Esa persona hizo lo mismo en el pasado.</t>
   </si>
   <si>
@@ -1827,15 +948,9 @@
     <t>Muchos días después, y además dos días y una semana después.</t>
   </si>
   <si>
-    <t>El niño, este niño, esas personas, el pasado jueves, unos pocos días.</t>
-  </si>
-  <si>
     <t>El futuro nos depara algo futuro, igual que a su futuro hijo.</t>
   </si>
   <si>
-    <t>Mañana comeré en la mañana; no la segunda mañana, pero varias mañanas seguidas, pensando en el mañana, o en el día de mañana.</t>
-  </si>
-  <si>
     <t>Unos 1991 días.</t>
   </si>
   <si>
@@ -1872,18 +987,9 @@
     <t>Tres días cada dos meses</t>
   </si>
   <si>
-    <t>En el 999 AC</t>
-  </si>
-  <si>
     <t>El XX d.C.</t>
   </si>
   <si>
-    <t>El XI AC</t>
-  </si>
-  <si>
-    <t>El siglo X después de Cristo</t>
-  </si>
-  <si>
     <t>En el siglo 20.</t>
   </si>
   <si>
@@ -1911,21 +1017,9 @@
     <t>Ocurrió este mismo año 2000.</t>
   </si>
   <si>
-    <t>Se medirán en el campo próximo sábado.</t>
-  </si>
-  <si>
-    <t>Este siglo XXI.</t>
-  </si>
-  <si>
     <t>Hace dos lustros.</t>
   </si>
   <si>
-    <t>Miles de inventos llegarán a lo largo del siglo 21.</t>
-  </si>
-  <si>
-    <t>Fue condenado ese mismo día del señor.</t>
-  </si>
-  <si>
     <t>Ya hace una semana.</t>
   </si>
   <si>
@@ -1947,9 +1041,6 @@
     <t>Dos años y tres meses y dos minutos.</t>
   </si>
   <si>
-    <t>Participan del día 3 y el 5.</t>
-  </si>
-  <si>
     <t>Esto fue el próximo mayo, hace tiempo.</t>
   </si>
   <si>
@@ -1995,15 +1086,9 @@
     <t>Ampliaron el horario de tres a cinco horas de atención al público.</t>
   </si>
   <si>
-    <t>Durante el tercer trimestre.</t>
-  </si>
-  <si>
     <t>Hasta finales del pasado mayo .</t>
   </si>
   <si>
-    <t>Cerraron por la noche.</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -2034,9 +1119,6 @@
     <t>Fue condenado hace tres años.</t>
   </si>
   <si>
-    <t>El mismo día por la tarde.</t>
-  </si>
-  <si>
     <t>Últimamente estamos perdiendo.</t>
   </si>
   <si>
@@ -2055,9 +1137,6 @@
     <t>El cuerpo ha ido cambiando desde 1997.</t>
   </si>
   <si>
-    <t>Nos vemos dentro de 4 meses, pero 7 años, 2 meses y tres minutos antes.</t>
-  </si>
-  <si>
     <t>Un bonito, largo y hermoso año.</t>
   </si>
   <si>
@@ -2067,9 +1146,6 @@
     <t>Nació en 1998.</t>
   </si>
   <si>
-    <t>Ayer fuimos al parque, hace dos siglos lo vimos.</t>
-  </si>
-  <si>
     <t>Participan del día 3 al 5.</t>
   </si>
   <si>
@@ -2121,9 +1197,6 @@
     <t>Está próximo a mi casa. Soy el próximo en la lista.</t>
   </si>
   <si>
-    <t>Antes del fin de año.</t>
-  </si>
-  <si>
     <t>Durará de 3 a cinco días.</t>
   </si>
   <si>
@@ -2148,9 +1221,6 @@
     <t>El 3 de octubre.</t>
   </si>
   <si>
-    <t>Más de una hora y además 1 hora.</t>
-  </si>
-  <si>
     <t>Ayer fuimos a comprar.</t>
   </si>
   <si>
@@ -2184,9 +1254,6 @@
     <t>El mes pasado, el pasado año.</t>
   </si>
   <si>
-    <t>Abril de 1991.</t>
-  </si>
-  <si>
     <t>Por dos horas.</t>
   </si>
   <si>
@@ -2205,9 +1272,6 @@
     <t>Durante una hora y 15 minutos.</t>
   </si>
   <si>
-    <t>Quedamos a las tres de la tarde.</t>
-  </si>
-  <si>
     <t>Las tres dijeron lo mismo.</t>
   </si>
   <si>
@@ -2274,15 +1338,9 @@
     <t>De 12:15 a 3:50.</t>
   </si>
   <si>
-    <t>A las 12 de la tarde.</t>
-  </si>
-  <si>
     <t>Las 5 por la tarde.</t>
   </si>
   <si>
-    <t>Las 12 de aquella nublada y bella tarde.</t>
-  </si>
-  <si>
     <t>Las 12 del mediodía.</t>
   </si>
   <si>
@@ -2307,18 +1365,12 @@
     <t>Duró más de dos días.</t>
   </si>
   <si>
-    <t>Esperaron 45 minutos y unos 3 cuartos de hora, más tres cuartos de hora.</t>
-  </si>
-  <si>
     <t>Duró medio día.</t>
   </si>
   <si>
     <t>Una hora y tres cuartos.</t>
   </si>
   <si>
-    <t>Tres horas y media.</t>
-  </si>
-  <si>
     <t>Dos días y tres cuartos.</t>
   </si>
   <si>
@@ -2349,33 +1401,15 @@
     <t>El lunes y el martes.</t>
   </si>
   <si>
-    <t>Martes, 3 de octubre.</t>
-  </si>
-  <si>
-    <t>Martes 3 de octubre.</t>
-  </si>
-  <si>
     <t>El tres de octubre y el 2 de marzo.</t>
   </si>
   <si>
-    <t>Estuvo así durante dos años, tres meses y un día.</t>
-  </si>
-  <si>
     <t>Dos veces cada 23 años</t>
   </si>
   <si>
-    <t>en el año mil novecientos treinta y dos</t>
-  </si>
-  <si>
     <t>Estoy escribiendo un diario</t>
   </si>
   <si>
-    <t>Son un par de días</t>
-  </si>
-  <si>
-    <t>Problems with past</t>
-  </si>
-  <si>
     <t>Problems with second ("segundo")</t>
   </si>
   <si>
@@ -2443,6 +1477,135 @@
   </si>
   <si>
     <t>Misc</t>
+  </si>
+  <si>
+    <t>En mayo me iba con Abril al campo, sobre todo los jueves y los domingos…</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Problems with "pasado"</t>
+  </si>
+  <si>
+    <t>Esta mañana, aquella tarde, en la mañana del día 10, esa mañana. Lo hizo hoy de buena mañana. Pasado mañana vamos a comer, porque pasado es un gran día. Una vez haya pasado mañana.</t>
+  </si>
+  <si>
+    <t>Son un par de días.</t>
+  </si>
+  <si>
+    <t>En el 999 AC.</t>
+  </si>
+  <si>
+    <t>en el año mil novecientos treinta y dos.</t>
+  </si>
+  <si>
+    <t>Durante el cuatrimestre primero ocurrió algo.</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>El niño, este niño, esas personas, el pasado lunes, unos pocos días.</t>
+  </si>
+  <si>
+    <t>Mañana comeré en la mañana; lo haré así varias mañanas seguidas, pensando en el mañana, o en el día de mañana.</t>
+  </si>
+  <si>
+    <t>Más de una hora o 1 hora.</t>
+  </si>
+  <si>
+    <t>Antes de fin de año.</t>
+  </si>
+  <si>
+    <t>Nos vemos dentro de 4 meses, que son 7 años, 2 meses y tres minutos antes de fin de año.</t>
+  </si>
+  <si>
+    <t>Estuvo así durante dos siglos, tres meses y un día.</t>
+  </si>
+  <si>
+    <t>Hoy, viernes, se armó la marimorena.</t>
+  </si>
+  <si>
+    <t>Hoy, 20 de diciembre de 2019, se armó la marimorena.</t>
+  </si>
+  <si>
+    <t>El año 1991.</t>
+  </si>
+  <si>
+    <t>En abril de 1991.</t>
+  </si>
+  <si>
+    <t>Ayer, 19 de diciembre de 2019.</t>
+  </si>
+  <si>
+    <t>Jueves 3 de octubre.</t>
+  </si>
+  <si>
+    <t>Jueves, 3 de octubre.</t>
+  </si>
+  <si>
+    <t>Tres siglos y medio.</t>
+  </si>
+  <si>
+    <t>Esperaron 45 minutos, es decir unos 3 cuartos de hora; fueron más de tres cuartos de hora.</t>
+  </si>
+  <si>
+    <t>A las 7 de la tarde.</t>
+  </si>
+  <si>
+    <t>Las 2 de aquella nublada y bella tarde.</t>
+  </si>
+  <si>
+    <t>Quedamos a las cuatro de la tarde.</t>
+  </si>
+  <si>
+    <t>Entre las 10 y las 12.</t>
+  </si>
+  <si>
+    <t>Correference</t>
+  </si>
+  <si>
+    <t>En nombre del Institut Joan Mes.</t>
+  </si>
+  <si>
+    <t>Se medirán en el campo el próximo sábado.</t>
+  </si>
+  <si>
+    <t>Ha sido condenado este mismo día del señor.</t>
+  </si>
+  <si>
+    <t>Ayer fuimos al parque, hace dos siglos lo construyeron.</t>
+  </si>
+  <si>
+    <t>Miles de inventos llegaron a lo largo del siglo 18.</t>
+  </si>
+  <si>
+    <t>Este siglo XX.</t>
+  </si>
+  <si>
+    <t>El siglo X después de Cristo.</t>
+  </si>
+  <si>
+    <t>El XI AC.</t>
+  </si>
+  <si>
+    <t>Participaron del día 3 y el 5.</t>
+  </si>
+  <si>
+    <t>El día 1 y el 2.</t>
+  </si>
+  <si>
+    <t>Este mismo día por la tarde.</t>
+  </si>
+  <si>
+    <t>Hoy cierran por la noche.</t>
+  </si>
+  <si>
+    <t>Se examina el tercer trimestre.</t>
+  </si>
+  <si>
+    <t>Register</t>
   </si>
 </sst>
 </file>
@@ -2458,15 +1621,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2474,14 +1643,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2764,9 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2775,3149 +1959,3149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
-        <v>158</v>
+      <c r="C1" s="4" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C2" t="s">
-        <v>803</v>
+        <v>483</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>803</v>
+      <c r="B3" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>781</v>
+      <c r="B4" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" t="s">
-        <v>781</v>
+        <v>260</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" t="s">
-        <v>582</v>
-      </c>
-      <c r="C6" t="s">
-        <v>781</v>
+        <v>289</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" t="s">
-        <v>781</v>
+        <v>284</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C8" t="s">
-        <v>781</v>
+        <v>290</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" t="s">
-        <v>584</v>
-      </c>
-      <c r="C9" t="s">
-        <v>781</v>
+        <v>291</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C10" t="s">
-        <v>782</v>
+        <v>292</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" t="s">
-        <v>586</v>
-      </c>
-      <c r="C11" t="s">
-        <v>804</v>
+        <v>293</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" t="s">
-        <v>587</v>
-      </c>
-      <c r="C12" t="s">
-        <v>804</v>
+        <v>294</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" t="s">
-        <v>804</v>
+        <v>266</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C14" t="s">
-        <v>804</v>
+        <v>267</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>804</v>
+      <c r="B15" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>804</v>
+        <v>486</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B17" t="s">
-        <v>597</v>
-      </c>
-      <c r="C17" t="s">
-        <v>804</v>
+        <v>304</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" t="s">
-        <v>598</v>
-      </c>
-      <c r="C18" t="s">
-        <v>804</v>
+        <v>305</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" t="s">
-        <v>780</v>
-      </c>
-      <c r="C19" t="s">
-        <v>783</v>
+        <v>487</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B20" t="s">
-        <v>686</v>
-      </c>
-      <c r="C20" t="s">
-        <v>784</v>
+        <v>378</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B21" t="s">
-        <v>626</v>
-      </c>
-      <c r="C21" t="s">
-        <v>784</v>
+        <v>328</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" t="s">
-        <v>784</v>
+        <v>185</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" t="s">
-        <v>644</v>
-      </c>
-      <c r="C23" t="s">
-        <v>784</v>
+        <v>341</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>674</v>
-      </c>
-      <c r="C24" t="s">
-        <v>784</v>
+        <v>368</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" t="s">
-        <v>784</v>
+        <v>250</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B26" t="s">
-        <v>614</v>
-      </c>
-      <c r="C26" t="s">
-        <v>784</v>
+        <v>488</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B27" t="s">
-        <v>619</v>
-      </c>
-      <c r="C27" t="s">
-        <v>784</v>
+      <c r="B27" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B28" t="s">
-        <v>620</v>
-      </c>
-      <c r="C28" t="s">
-        <v>784</v>
+      <c r="B28" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B29" t="s">
-        <v>778</v>
-      </c>
-      <c r="C29" t="s">
-        <v>784</v>
+        <v>489</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B30" t="s">
-        <v>678</v>
-      </c>
-      <c r="C30" t="s">
-        <v>784</v>
+        <v>371</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B31" t="s">
-        <v>290</v>
-      </c>
-      <c r="C31" t="s">
-        <v>785</v>
+        <v>490</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B32" t="s">
-        <v>599</v>
-      </c>
-      <c r="C32" t="s">
-        <v>786</v>
+        <v>492</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B33" t="s">
-        <v>600</v>
-      </c>
-      <c r="C33" t="s">
-        <v>786</v>
+        <v>306</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B34" t="s">
-        <v>601</v>
-      </c>
-      <c r="C34" t="s">
-        <v>786</v>
+        <v>493</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B35" t="s">
-        <v>659</v>
-      </c>
-      <c r="C35" t="s">
-        <v>787</v>
+        <v>354</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B36" t="s">
-        <v>676</v>
-      </c>
-      <c r="C36" t="s">
-        <v>788</v>
+        <v>369</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B37" t="s">
-        <v>670</v>
-      </c>
-      <c r="C37" t="s">
-        <v>788</v>
+        <v>364</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B38" t="s">
-        <v>666</v>
-      </c>
-      <c r="C38" t="s">
-        <v>788</v>
+        <v>361</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39" t="s">
-        <v>788</v>
+        <v>287</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B40" t="s">
-        <v>588</v>
-      </c>
-      <c r="C40" t="s">
-        <v>788</v>
+        <v>295</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B41" t="s">
-        <v>602</v>
-      </c>
-      <c r="C41" t="s">
-        <v>788</v>
+        <v>307</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B42" t="s">
-        <v>603</v>
-      </c>
-      <c r="C42" t="s">
-        <v>788</v>
+        <v>308</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B43" t="s">
-        <v>604</v>
-      </c>
-      <c r="C43" t="s">
-        <v>788</v>
+        <v>309</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B44" t="s">
-        <v>270</v>
-      </c>
-      <c r="C44" t="s">
-        <v>788</v>
+        <v>268</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B45" t="s">
-        <v>271</v>
-      </c>
-      <c r="C45" t="s">
-        <v>788</v>
+        <v>269</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B46" t="s">
-        <v>608</v>
-      </c>
-      <c r="C46" t="s">
-        <v>788</v>
+        <v>313</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B47" t="s">
-        <v>609</v>
-      </c>
-      <c r="C47" t="s">
-        <v>788</v>
+        <v>314</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B48" t="s">
-        <v>607</v>
-      </c>
-      <c r="C48" t="s">
-        <v>788</v>
+        <v>312</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B49" t="s">
-        <v>681</v>
-      </c>
-      <c r="C49" t="s">
-        <v>788</v>
+        <v>373</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B50" t="s">
-        <v>606</v>
-      </c>
-      <c r="C50" t="s">
-        <v>788</v>
+        <v>311</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B51" t="s">
-        <v>719</v>
-      </c>
-      <c r="C51" t="s">
-        <v>788</v>
+        <v>408</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B52" t="s">
-        <v>722</v>
-      </c>
-      <c r="C52" t="s">
-        <v>788</v>
+        <v>411</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B53" t="s">
-        <v>723</v>
-      </c>
-      <c r="C53" t="s">
-        <v>788</v>
+        <v>412</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B54" t="s">
-        <v>724</v>
-      </c>
-      <c r="C54" t="s">
-        <v>788</v>
+        <v>413</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B55" t="s">
-        <v>280</v>
-      </c>
-      <c r="C55" t="s">
-        <v>788</v>
+        <v>277</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C56" t="s">
-        <v>788</v>
+        <v>278</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B57" t="s">
-        <v>706</v>
-      </c>
-      <c r="C57" t="s">
-        <v>788</v>
+        <v>494</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B58" t="s">
-        <v>689</v>
-      </c>
-      <c r="C58" t="s">
-        <v>788</v>
+        <v>381</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B59" t="s">
-        <v>690</v>
-      </c>
-      <c r="C59" t="s">
-        <v>788</v>
+        <v>382</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C60" t="s">
-        <v>788</v>
+        <v>280</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B61" t="s">
-        <v>284</v>
-      </c>
-      <c r="C61" t="s">
-        <v>788</v>
+        <v>281</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B62" t="s">
-        <v>704</v>
-      </c>
-      <c r="C62" t="s">
-        <v>788</v>
+        <v>395</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B63" t="s">
-        <v>621</v>
-      </c>
-      <c r="C63" t="s">
-        <v>788</v>
+        <v>323</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B64" t="s">
-        <v>638</v>
-      </c>
-      <c r="C64" t="s">
-        <v>788</v>
+        <v>336</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B65" t="s">
-        <v>697</v>
-      </c>
-      <c r="C65" t="s">
-        <v>788</v>
+        <v>495</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B66" t="s">
-        <v>645</v>
-      </c>
-      <c r="C66" t="s">
-        <v>788</v>
+        <v>342</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B67" t="s">
-        <v>648</v>
-      </c>
-      <c r="C67" t="s">
-        <v>788</v>
+        <v>345</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B68" t="s">
-        <v>694</v>
-      </c>
-      <c r="C68" t="s">
-        <v>788</v>
+        <v>386</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B69" t="s">
-        <v>652</v>
-      </c>
-      <c r="C69" t="s">
-        <v>788</v>
+        <v>349</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B70" t="s">
-        <v>653</v>
-      </c>
-      <c r="C70" t="s">
-        <v>788</v>
+        <v>350</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B71" t="s">
-        <v>654</v>
-      </c>
-      <c r="C71" t="s">
-        <v>788</v>
+        <v>351</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B72" t="s">
-        <v>675</v>
-      </c>
-      <c r="C72" t="s">
-        <v>788</v>
+        <v>496</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B73" t="s">
-        <v>695</v>
-      </c>
-      <c r="C73" t="s">
-        <v>788</v>
+        <v>387</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B74" t="s">
-        <v>776</v>
-      </c>
-      <c r="C74" t="s">
-        <v>788</v>
+        <v>497</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B75" t="s">
-        <v>662</v>
-      </c>
-      <c r="C75" t="s">
-        <v>789</v>
+        <v>357</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B76" t="s">
-        <v>642</v>
-      </c>
-      <c r="C76" t="s">
-        <v>790</v>
+        <v>339</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B77" t="s">
-        <v>647</v>
-      </c>
-      <c r="C77" t="s">
-        <v>790</v>
+        <v>344</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B78" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" t="s">
-        <v>790</v>
+        <v>214</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B79" t="s">
-        <v>651</v>
-      </c>
-      <c r="C79" t="s">
-        <v>790</v>
+        <v>348</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B80" t="s">
-        <v>232</v>
-      </c>
-      <c r="C80" t="s">
-        <v>790</v>
+        <v>231</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B81" t="s">
-        <v>292</v>
-      </c>
-      <c r="C81" t="s">
-        <v>790</v>
+        <v>498</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B82" t="s">
-        <v>293</v>
-      </c>
-      <c r="C82" t="s">
-        <v>790</v>
+        <v>499</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B83" t="s">
-        <v>663</v>
-      </c>
-      <c r="C83" t="s">
-        <v>790</v>
+        <v>358</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B84" t="s">
-        <v>272</v>
-      </c>
-      <c r="C84" t="s">
-        <v>790</v>
+        <v>270</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B85" t="s">
-        <v>273</v>
-      </c>
-      <c r="C85" t="s">
-        <v>790</v>
+        <v>500</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B86" t="s">
-        <v>274</v>
-      </c>
-      <c r="C86" t="s">
-        <v>790</v>
+        <v>271</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B87" t="s">
-        <v>605</v>
-      </c>
-      <c r="C87" t="s">
-        <v>790</v>
+        <v>310</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C88" t="s">
-        <v>790</v>
+      <c r="A88" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C89" t="s">
-        <v>790</v>
+      <c r="A89" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C90" t="s">
-        <v>790</v>
+      <c r="A90" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C91" t="s">
-        <v>790</v>
+      <c r="A91" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B92" t="s">
-        <v>264</v>
-      </c>
-      <c r="C92" t="s">
-        <v>790</v>
+        <v>263</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B93" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" t="s">
-        <v>790</v>
+        <v>264</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B94" t="s">
         <v>24</v>
       </c>
-      <c r="C94" t="s">
-        <v>790</v>
+      <c r="B94" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B95" t="s">
-        <v>278</v>
-      </c>
-      <c r="C95" t="s">
-        <v>790</v>
+        <v>275</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B96" t="s">
-        <v>279</v>
-      </c>
-      <c r="C96" t="s">
-        <v>790</v>
+        <v>276</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B97" t="s">
-        <v>718</v>
-      </c>
-      <c r="C97" t="s">
-        <v>790</v>
+        <v>501</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B98" t="s">
-        <v>721</v>
-      </c>
-      <c r="C98" t="s">
-        <v>790</v>
+        <v>410</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B99" t="s">
-        <v>705</v>
-      </c>
-      <c r="C99" t="s">
-        <v>790</v>
+        <v>396</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B100" t="s">
-        <v>624</v>
-      </c>
-      <c r="C100" t="s">
-        <v>790</v>
+        <v>326</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B101" t="s">
-        <v>625</v>
-      </c>
-      <c r="C101" t="s">
-        <v>790</v>
+        <v>327</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B102" t="s">
-        <v>286</v>
-      </c>
-      <c r="C102" t="s">
-        <v>790</v>
+        <v>502</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B103" t="s">
-        <v>185</v>
-      </c>
-      <c r="C103" t="s">
-        <v>790</v>
+        <v>184</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B104" t="s">
-        <v>701</v>
-      </c>
-      <c r="C104" t="s">
-        <v>791</v>
+        <v>392</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B105" t="s">
-        <v>276</v>
-      </c>
-      <c r="C105" t="s">
-        <v>791</v>
+        <v>273</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B106" t="s">
-        <v>702</v>
-      </c>
-      <c r="C106" t="s">
-        <v>791</v>
+        <v>393</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B107" t="s">
-        <v>703</v>
-      </c>
-      <c r="C107" t="s">
-        <v>791</v>
+        <v>394</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B108" t="s">
-        <v>775</v>
-      </c>
-      <c r="C108" t="s">
-        <v>791</v>
+        <v>457</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B109" t="s">
-        <v>774</v>
-      </c>
-      <c r="C109" t="s">
-        <v>791</v>
+        <v>503</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B110" t="s">
-        <v>773</v>
-      </c>
-      <c r="C110" t="s">
-        <v>791</v>
+        <v>504</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B111" t="s">
-        <v>772</v>
-      </c>
-      <c r="C111" t="s">
-        <v>791</v>
+        <v>456</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B112" t="s">
-        <v>771</v>
-      </c>
-      <c r="C112" t="s">
-        <v>792</v>
+        <v>455</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B113" t="s">
-        <v>770</v>
-      </c>
-      <c r="C113" t="s">
-        <v>792</v>
+        <v>454</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B114" t="s">
-        <v>769</v>
-      </c>
-      <c r="C114" t="s">
-        <v>792</v>
+        <v>453</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B115" t="s">
-        <v>768</v>
-      </c>
-      <c r="C115" t="s">
-        <v>792</v>
+        <v>452</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B116" t="s">
-        <v>767</v>
-      </c>
-      <c r="C116" t="s">
-        <v>793</v>
+        <v>451</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B117" t="s">
-        <v>766</v>
-      </c>
-      <c r="C117" t="s">
-        <v>793</v>
+        <v>450</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B118" t="s">
-        <v>765</v>
-      </c>
-      <c r="C118" t="s">
-        <v>793</v>
+        <v>449</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B119" t="s">
-        <v>764</v>
-      </c>
-      <c r="C119" t="s">
-        <v>793</v>
+        <v>448</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B120" t="s">
-        <v>763</v>
-      </c>
-      <c r="C120" t="s">
-        <v>793</v>
+        <v>447</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B121" t="s">
-        <v>762</v>
-      </c>
-      <c r="C121" t="s">
-        <v>793</v>
+        <v>505</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B122" t="s">
-        <v>761</v>
-      </c>
-      <c r="C122" t="s">
-        <v>793</v>
+        <v>446</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B123" t="s">
-        <v>760</v>
-      </c>
-      <c r="C123" t="s">
-        <v>793</v>
+        <v>445</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B124" t="s">
-        <v>759</v>
-      </c>
-      <c r="C124" t="s">
-        <v>793</v>
+        <v>506</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B125" t="s">
-        <v>277</v>
-      </c>
-      <c r="C125" t="s">
-        <v>793</v>
+        <v>274</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B126" t="s">
-        <v>758</v>
-      </c>
-      <c r="C126" t="s">
-        <v>793</v>
+        <v>444</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B127" t="s">
-        <v>746</v>
-      </c>
-      <c r="C127" t="s">
-        <v>793</v>
+        <v>434</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B128" t="s">
         <v>136</v>
       </c>
-      <c r="C128" t="s">
-        <v>793</v>
+      <c r="B128" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B129" t="s">
-        <v>285</v>
-      </c>
-      <c r="C129" t="s">
-        <v>794</v>
+        <v>282</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B130" t="s">
-        <v>164</v>
-      </c>
-      <c r="C130" t="s">
-        <v>794</v>
+        <v>163</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B131" t="s">
         <v>41</v>
       </c>
-      <c r="C131" t="s">
-        <v>795</v>
+      <c r="B131" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B132" t="s">
         <v>42</v>
       </c>
-      <c r="C132" t="s">
-        <v>795</v>
+      <c r="B132" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B133" t="s">
         <v>43</v>
       </c>
-      <c r="C133" t="s">
-        <v>795</v>
+      <c r="B133" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B134" t="s">
         <v>44</v>
       </c>
-      <c r="C134" t="s">
-        <v>795</v>
+      <c r="B134" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B135" t="s">
-        <v>747</v>
-      </c>
-      <c r="C135" t="s">
-        <v>795</v>
+        <v>435</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B136" t="s">
         <v>46</v>
       </c>
-      <c r="C136" t="s">
-        <v>795</v>
+      <c r="B136" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B137" t="s">
         <v>47</v>
       </c>
-      <c r="C137" t="s">
-        <v>795</v>
+      <c r="B137" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B138" t="s">
         <v>48</v>
       </c>
-      <c r="C138" t="s">
-        <v>795</v>
+      <c r="B138" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B139" t="s">
-        <v>748</v>
-      </c>
-      <c r="C139" t="s">
-        <v>795</v>
+        <v>507</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B140" t="s">
-        <v>749</v>
-      </c>
-      <c r="C140" t="s">
-        <v>795</v>
+        <v>436</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B141" t="s">
-        <v>750</v>
-      </c>
-      <c r="C141" t="s">
-        <v>795</v>
+        <v>508</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B142" t="s">
-        <v>751</v>
-      </c>
-      <c r="C142" t="s">
-        <v>795</v>
+        <v>437</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B143" t="s">
-        <v>752</v>
-      </c>
-      <c r="C143" t="s">
-        <v>795</v>
+        <v>438</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B144" t="s">
-        <v>753</v>
-      </c>
-      <c r="C144" t="s">
-        <v>795</v>
+        <v>439</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B145" t="s">
-        <v>754</v>
-      </c>
-      <c r="C145" t="s">
-        <v>795</v>
+        <v>440</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B146" t="s">
-        <v>755</v>
-      </c>
-      <c r="C146" t="s">
-        <v>795</v>
+        <v>441</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B147" t="s">
-        <v>756</v>
-      </c>
-      <c r="C147" t="s">
-        <v>795</v>
+        <v>442</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B148" t="s">
-        <v>757</v>
-      </c>
-      <c r="C148" t="s">
-        <v>795</v>
+        <v>443</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B149" t="s">
-        <v>725</v>
-      </c>
-      <c r="C149" t="s">
-        <v>795</v>
+        <v>509</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B150" t="s">
-        <v>726</v>
-      </c>
-      <c r="C150" t="s">
-        <v>795</v>
+        <v>414</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B151" t="s">
-        <v>727</v>
-      </c>
-      <c r="C151" t="s">
-        <v>795</v>
+        <v>415</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B152" t="s">
-        <v>728</v>
-      </c>
-      <c r="C152" t="s">
-        <v>795</v>
+        <v>416</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B153" t="s">
-        <v>729</v>
-      </c>
-      <c r="C153" t="s">
-        <v>795</v>
+        <v>417</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B154" t="s">
-        <v>730</v>
-      </c>
-      <c r="C154" t="s">
-        <v>795</v>
+        <v>418</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B155" t="s">
-        <v>731</v>
-      </c>
-      <c r="C155" t="s">
-        <v>795</v>
+        <v>419</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B156" t="s">
-        <v>732</v>
-      </c>
-      <c r="C156" t="s">
-        <v>795</v>
+        <v>420</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B157" t="s">
-        <v>733</v>
-      </c>
-      <c r="C157" t="s">
-        <v>795</v>
+        <v>421</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B158" t="s">
-        <v>734</v>
-      </c>
-      <c r="C158" t="s">
-        <v>795</v>
+        <v>422</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B159" t="s">
-        <v>735</v>
-      </c>
-      <c r="C159" t="s">
-        <v>795</v>
+        <v>423</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B160" t="s">
-        <v>736</v>
-      </c>
-      <c r="C160" t="s">
-        <v>795</v>
+        <v>424</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B161" t="s">
         <v>35</v>
       </c>
-      <c r="C161" t="s">
-        <v>795</v>
+      <c r="B161" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B162" t="s">
-        <v>36</v>
-      </c>
-      <c r="C162" t="s">
-        <v>795</v>
+        <v>510</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B163" t="s">
-        <v>712</v>
-      </c>
-      <c r="C163" t="s">
-        <v>795</v>
+        <v>402</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B164" t="s">
-        <v>713</v>
-      </c>
-      <c r="C164" t="s">
-        <v>795</v>
+        <v>403</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B165" t="s">
-        <v>714</v>
-      </c>
-      <c r="C165" t="s">
-        <v>795</v>
+        <v>404</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B166" t="s">
-        <v>715</v>
-      </c>
-      <c r="C166" t="s">
-        <v>795</v>
+        <v>405</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B167" t="s">
-        <v>737</v>
-      </c>
-      <c r="C167" t="s">
+        <v>425</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B168" t="s">
-        <v>738</v>
-      </c>
-      <c r="C168" t="s">
+        <v>426</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B169" t="s">
-        <v>739</v>
-      </c>
-      <c r="C169" t="s">
+        <v>427</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B170" t="s">
-        <v>740</v>
-      </c>
-      <c r="C170" t="s">
+        <v>428</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B171" t="s">
-        <v>741</v>
-      </c>
-      <c r="C171" t="s">
+        <v>429</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B172" t="s">
-        <v>742</v>
-      </c>
-      <c r="C172" t="s">
+        <v>430</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B173" t="s">
-        <v>743</v>
-      </c>
-      <c r="C173" t="s">
+        <v>431</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B174" t="s">
-        <v>744</v>
-      </c>
-      <c r="C174" t="s">
+        <v>432</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B175" t="s">
-        <v>745</v>
-      </c>
-      <c r="C175" t="s">
+        <v>433</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B176" t="s">
-        <v>717</v>
-      </c>
-      <c r="C176" t="s">
+        <v>407</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B177" t="s">
         <v>148</v>
       </c>
-      <c r="C177" t="s">
-        <v>137</v>
+      <c r="B177" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B178" t="s">
-        <v>635</v>
-      </c>
-      <c r="C178" t="s">
+        <v>333</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B179" t="s">
-        <v>661</v>
-      </c>
-      <c r="C179" t="s">
-        <v>137</v>
+        <v>356</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B180" t="s">
-        <v>37</v>
-      </c>
-      <c r="C180" t="s">
-        <v>796</v>
+      <c r="C180" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B181" t="s">
         <v>38</v>
       </c>
-      <c r="C181" t="s">
-        <v>796</v>
+      <c r="B181" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B182" t="s">
-        <v>698</v>
-      </c>
-      <c r="C182" t="s">
-        <v>796</v>
+        <v>389</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B183" t="s">
-        <v>200</v>
-      </c>
-      <c r="C183" t="s">
-        <v>796</v>
+        <v>199</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B184" t="s">
-        <v>680</v>
-      </c>
-      <c r="C184" t="s">
-        <v>796</v>
+        <v>372</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B185" t="s">
-        <v>194</v>
-      </c>
-      <c r="C185" t="s">
-        <v>797</v>
+        <v>193</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B186" t="s">
-        <v>262</v>
-      </c>
-      <c r="C186" t="s">
-        <v>798</v>
+        <v>261</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B187" t="s">
-        <v>263</v>
-      </c>
-      <c r="C187" t="s">
-        <v>798</v>
+        <v>262</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B188" t="s">
-        <v>266</v>
-      </c>
-      <c r="C188" t="s">
-        <v>798</v>
+        <v>265</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B189" t="s">
-        <v>716</v>
-      </c>
-      <c r="C189" t="s">
-        <v>798</v>
+        <v>406</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B190" t="s">
-        <v>685</v>
-      </c>
-      <c r="C190" t="s">
-        <v>798</v>
+        <v>377</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B191" t="s">
-        <v>684</v>
-      </c>
-      <c r="C191" t="s">
-        <v>798</v>
+        <v>376</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B192" t="s">
-        <v>633</v>
-      </c>
-      <c r="C192" t="s">
-        <v>798</v>
+        <v>331</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B193" t="s">
-        <v>267</v>
-      </c>
-      <c r="C193" t="s">
-        <v>798</v>
+        <v>512</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B194" t="s">
-        <v>643</v>
-      </c>
-      <c r="C194" t="s">
-        <v>798</v>
+        <v>340</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B195" t="s">
-        <v>696</v>
-      </c>
-      <c r="C195" t="s">
-        <v>798</v>
+        <v>388</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C196" t="s">
-        <v>798</v>
+        <v>211</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B197" t="s">
-        <v>779</v>
-      </c>
-      <c r="C197" t="s">
-        <v>798</v>
+        <v>459</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B198" t="s">
-        <v>710</v>
-      </c>
-      <c r="C198" t="s">
-        <v>799</v>
+        <v>400</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B199" t="s">
-        <v>162</v>
-      </c>
-      <c r="C199" t="s">
-        <v>799</v>
+        <v>161</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B200" t="s">
-        <v>641</v>
-      </c>
-      <c r="C200" t="s">
-        <v>799</v>
+        <v>338</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B201" t="s">
-        <v>209</v>
-      </c>
-      <c r="C201" t="s">
-        <v>799</v>
+        <v>208</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B202" t="s">
-        <v>669</v>
-      </c>
-      <c r="C202" t="s">
-        <v>799</v>
+        <v>363</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B203" t="s">
-        <v>720</v>
-      </c>
-      <c r="C203" t="s">
-        <v>800</v>
+        <v>409</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B204" t="s">
-        <v>636</v>
-      </c>
-      <c r="C204" t="s">
-        <v>800</v>
+        <v>334</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B205" t="s">
-        <v>637</v>
-      </c>
-      <c r="C205" t="s">
-        <v>800</v>
+        <v>335</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B206" t="s">
-        <v>196</v>
-      </c>
-      <c r="C206" t="s">
-        <v>800</v>
+        <v>195</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B207" t="s">
-        <v>197</v>
-      </c>
-      <c r="C207" t="s">
-        <v>800</v>
+        <v>196</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B208" t="s">
-        <v>640</v>
-      </c>
-      <c r="C208" t="s">
-        <v>800</v>
+        <v>337</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B209" t="s">
-        <v>229</v>
-      </c>
-      <c r="C209" t="s">
-        <v>800</v>
+        <v>228</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B210" t="s">
-        <v>230</v>
-      </c>
-      <c r="C210" t="s">
-        <v>800</v>
+        <v>229</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B211" t="s">
-        <v>231</v>
-      </c>
-      <c r="C211" t="s">
-        <v>800</v>
+        <v>230</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B212" t="s">
-        <v>700</v>
-      </c>
-      <c r="C212" t="s">
-        <v>800</v>
+        <v>391</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B213" t="s">
-        <v>673</v>
-      </c>
-      <c r="C213" t="s">
-        <v>800</v>
+        <v>367</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B214" t="s">
-        <v>677</v>
-      </c>
-      <c r="C214" t="s">
-        <v>800</v>
+        <v>370</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C215" t="s">
-        <v>800</v>
+        <v>257</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B216" t="s">
-        <v>667</v>
-      </c>
-      <c r="C216" t="s">
-        <v>800</v>
+        <v>362</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B217" t="s">
-        <v>665</v>
-      </c>
-      <c r="C217" t="s">
-        <v>800</v>
+        <v>360</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B218" t="s">
-        <v>291</v>
-      </c>
-      <c r="C218" t="s">
-        <v>800</v>
+        <v>286</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B219" t="s">
-        <v>250</v>
-      </c>
-      <c r="C219" t="s">
-        <v>800</v>
+        <v>249</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B220" t="s">
-        <v>660</v>
-      </c>
-      <c r="C220" t="s">
-        <v>800</v>
+        <v>355</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B221" t="s">
-        <v>589</v>
-      </c>
-      <c r="C221" t="s">
-        <v>800</v>
+        <v>296</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B222" t="s">
-        <v>590</v>
-      </c>
-      <c r="C222" t="s">
-        <v>800</v>
+        <v>297</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B223" t="s">
         <v>23</v>
       </c>
-      <c r="C223" t="s">
-        <v>800</v>
+      <c r="B223" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B224" t="s">
-        <v>282</v>
-      </c>
-      <c r="C224" t="s">
-        <v>800</v>
+        <v>279</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B225" t="s">
-        <v>707</v>
-      </c>
-      <c r="C225" t="s">
-        <v>800</v>
+        <v>397</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B226" t="s">
-        <v>708</v>
-      </c>
-      <c r="C226" t="s">
-        <v>800</v>
+        <v>398</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B227" t="s">
-        <v>709</v>
-      </c>
-      <c r="C227" t="s">
-        <v>800</v>
+        <v>399</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B228" t="s">
-        <v>260</v>
-      </c>
-      <c r="C228" t="s">
-        <v>800</v>
+        <v>259</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B229" t="s">
-        <v>159</v>
-      </c>
-      <c r="C229" t="s">
-        <v>800</v>
+        <v>158</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B230" t="s">
-        <v>259</v>
-      </c>
-      <c r="C230" t="s">
-        <v>800</v>
+        <v>258</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B231" t="s">
-        <v>683</v>
-      </c>
-      <c r="C231" t="s">
-        <v>800</v>
+        <v>375</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B232" t="s">
-        <v>627</v>
-      </c>
-      <c r="C232" t="s">
-        <v>800</v>
+        <v>513</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B233" t="s">
-        <v>169</v>
-      </c>
-      <c r="C233" t="s">
-        <v>800</v>
+        <v>168</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B234" t="s">
-        <v>629</v>
-      </c>
-      <c r="C234" t="s">
-        <v>800</v>
+        <v>329</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B235" t="s">
-        <v>631</v>
-      </c>
-      <c r="C235" t="s">
-        <v>800</v>
+        <v>514</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B236" t="s">
-        <v>632</v>
-      </c>
-      <c r="C236" t="s">
-        <v>800</v>
+        <v>330</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B237" t="s">
-        <v>634</v>
-      </c>
-      <c r="C237" t="s">
-        <v>800</v>
+        <v>332</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B238" t="s">
-        <v>692</v>
-      </c>
-      <c r="C238" t="s">
-        <v>800</v>
+        <v>384</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B239" t="s">
-        <v>646</v>
-      </c>
-      <c r="C239" t="s">
-        <v>800</v>
+        <v>343</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C240" t="s">
-        <v>800</v>
+        <v>210</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B241" t="s">
-        <v>650</v>
-      </c>
-      <c r="C241" t="s">
-        <v>800</v>
+        <v>347</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B242" t="s">
-        <v>222</v>
-      </c>
-      <c r="C242" t="s">
-        <v>800</v>
+        <v>221</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B243" t="s">
-        <v>679</v>
-      </c>
-      <c r="C243" t="s">
-        <v>800</v>
+        <v>515</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B244" t="s">
-        <v>227</v>
-      </c>
-      <c r="C244" t="s">
-        <v>800</v>
+        <v>226</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B245" t="s">
-        <v>656</v>
-      </c>
-      <c r="C245" t="s">
-        <v>800</v>
+        <v>352</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B246" t="s">
         <v>10</v>
       </c>
-      <c r="C246" t="s">
+      <c r="B246" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B247" t="s">
-        <v>693</v>
-      </c>
-      <c r="C247" t="s">
+        <v>385</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B248" t="s">
-        <v>591</v>
-      </c>
-      <c r="C248" t="s">
+        <v>298</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B249" t="s">
-        <v>592</v>
-      </c>
-      <c r="C249" t="s">
+        <v>299</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B250" t="s">
-        <v>593</v>
-      </c>
-      <c r="C250" t="s">
+        <v>300</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B251" t="s">
-        <v>594</v>
-      </c>
-      <c r="C251" t="s">
+        <v>301</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B252" t="s">
-        <v>595</v>
-      </c>
-      <c r="C252" t="s">
+        <v>302</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B253" t="s">
-        <v>596</v>
-      </c>
-      <c r="C253" t="s">
+        <v>303</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B254" t="s">
-        <v>699</v>
-      </c>
-      <c r="C254" t="s">
+        <v>390</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="C254" s="2" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C255" t="s">
+      <c r="A255" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B256" t="s">
-        <v>687</v>
-      </c>
-      <c r="C256" t="s">
+        <v>379</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B257" t="s">
-        <v>688</v>
-      </c>
-      <c r="C257" t="s">
+        <v>380</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B258" t="s">
-        <v>711</v>
-      </c>
-      <c r="C258" t="s">
+        <v>401</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="B259" t="s">
-        <v>622</v>
-      </c>
-      <c r="C259" t="s">
+        <v>324</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B260" t="s">
-        <v>289</v>
-      </c>
-      <c r="C260" t="s">
+        <v>285</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B261" t="s">
-        <v>649</v>
-      </c>
-      <c r="C261" t="s">
+        <v>346</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B262" t="s">
-        <v>672</v>
-      </c>
-      <c r="C262" t="s">
+        <v>366</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B263" t="s">
-        <v>671</v>
-      </c>
-      <c r="C263" t="s">
+        <v>365</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B264" t="s">
-        <v>777</v>
-      </c>
-      <c r="C264" t="s">
+        <v>458</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B265" t="s">
-        <v>630</v>
-      </c>
-      <c r="C265" t="s">
-        <v>801</v>
+        <v>516</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B266" t="s">
-        <v>628</v>
-      </c>
-      <c r="C266" t="s">
-        <v>801</v>
+        <v>517</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B267" t="s">
-        <v>180</v>
-      </c>
-      <c r="C267" t="s">
-        <v>801</v>
+        <v>179</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B268" t="s">
-        <v>181</v>
-      </c>
-      <c r="C268" t="s">
-        <v>801</v>
+        <v>180</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B269" t="s">
-        <v>682</v>
-      </c>
-      <c r="C269" t="s">
-        <v>801</v>
+        <v>374</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B270" t="s">
-        <v>664</v>
-      </c>
-      <c r="C270" t="s">
-        <v>801</v>
+        <v>359</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B271" t="s">
-        <v>617</v>
-      </c>
-      <c r="C271" t="s">
-        <v>801</v>
+        <v>518</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B272" t="s">
-        <v>616</v>
-      </c>
-      <c r="C272" t="s">
-        <v>801</v>
+        <v>519</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B273" t="s">
-        <v>615</v>
-      </c>
-      <c r="C273" t="s">
-        <v>801</v>
+        <v>319</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B274" t="s">
-        <v>618</v>
-      </c>
-      <c r="C274" t="s">
-        <v>801</v>
+        <v>320</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="B275" t="s">
         <v>39</v>
       </c>
-      <c r="C275" t="s">
-        <v>802</v>
+      <c r="B275" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B276" t="s">
         <v>40</v>
       </c>
-      <c r="C276" t="s">
-        <v>802</v>
+      <c r="B276" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="B277" t="s">
-        <v>165</v>
-      </c>
-      <c r="C277" t="s">
-        <v>802</v>
+        <v>164</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B278" t="s">
-        <v>639</v>
-      </c>
-      <c r="C278" t="s">
-        <v>802</v>
+        <v>520</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B279" t="s">
-        <v>195</v>
-      </c>
-      <c r="C279" t="s">
-        <v>802</v>
+        <v>194</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B280" t="s">
-        <v>213</v>
-      </c>
-      <c r="C280" t="s">
-        <v>802</v>
+        <v>521</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B281" t="s">
-        <v>623</v>
-      </c>
-      <c r="C281" t="s">
-        <v>658</v>
+        <v>325</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B282" t="s">
-        <v>691</v>
-      </c>
-      <c r="C282" t="s">
-        <v>658</v>
+        <v>383</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B283" t="s">
-        <v>668</v>
-      </c>
-      <c r="C283" t="s">
-        <v>658</v>
+        <v>522</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B284" t="s">
-        <v>657</v>
-      </c>
-      <c r="C284" t="s">
-        <v>658</v>
+        <v>523</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B285" t="s">
-        <v>287</v>
-      </c>
-      <c r="C285" t="s">
-        <v>785</v>
+        <v>283</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B286" t="s">
-        <v>655</v>
-      </c>
-      <c r="C286" t="s">
-        <v>785</v>
+        <v>524</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -6818,242 +6002,242 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
@@ -7063,217 +6247,217 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
@@ -7283,12 +6467,12 @@
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
@@ -7298,137 +6482,137 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
